--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shani\source\repos\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shani\source\repos\ProjectSelenium\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51BA9F8-3FBA-4230-808F-D1DF53B81911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870940F-C68E-41D1-A81D-D495D830ABAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="7845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="7845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF0373-3A3B-444F-A79A-960939E75B77}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shani\source\repos\ProjectSelenium\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870940F-C68E-41D1-A81D-D495D830ABAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A2FFF-108B-4961-A29B-01B135E7B6BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="7845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="7845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Registration" sheetId="5" r:id="rId4"/>
     <sheet name="Profile" sheetId="2" r:id="rId5"/>
     <sheet name="SearchSkill" sheetId="6" r:id="rId6"/>
+    <sheet name="Languages" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>Url</t>
   </si>
@@ -337,6 +338,15 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Conversational</t>
+  </si>
+  <si>
+    <t>Native/Bilingual</t>
   </si>
 </sst>
 </file>
@@ -876,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF0373-3A3B-444F-A79A-960939E75B77}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1240,12 +1250,6 @@
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1287,12 +1291,6 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -1322,24 +1320,15 @@
       <c r="E3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H4" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1387,4 +1376,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D22B4B-5775-4FED-AE01-181914014D43}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>